--- a/formatted.xlsx
+++ b/formatted.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="979" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,133 +15,129 @@
     <sheet name="ut" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
   <si>
-    <t xml:space="preserve">At Convergence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After 500 Days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Div.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRS Dev.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed – 5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_fixed05_random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Random</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cons_fixed05_total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed – 10%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fixed – 20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last MRS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prob.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-25-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5__</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5_25_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5_25_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backtrack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple Conv.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple Div.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trades at Convergence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trades after 500 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finish Count</t>
+    <t>At Convergence</t>
+  </si>
+  <si>
+    <t>After 500 Days</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>Reversion</t>
+  </si>
+  <si>
+    <t>Div.</t>
+  </si>
+  <si>
+    <t>Conv.</t>
+  </si>
+  <si>
+    <t>Wealth</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>MRS Dev.</t>
+  </si>
+  <si>
+    <t>Trades</t>
+  </si>
+  <si>
+    <t>Fixed – 5%</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>cons_fixed05_random</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>cons_fixed05_total</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Fixed – 10%</t>
+  </si>
+  <si>
+    <t>Fixed – 20%</t>
+  </si>
+  <si>
+    <t>Last MRS</t>
+  </si>
+  <si>
+    <t>Prob.</t>
+  </si>
+  <si>
+    <t>Positions</t>
+  </si>
+  <si>
+    <t>5-25</t>
+  </si>
+  <si>
+    <t>5-25-100</t>
+  </si>
+  <si>
+    <t>25__</t>
+  </si>
+  <si>
+    <t>5__</t>
+  </si>
+  <si>
+    <t>5_25_</t>
+  </si>
+  <si>
+    <t>5_25_100</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Backtrack</t>
+  </si>
+  <si>
+    <t>Simple Conv.</t>
+  </si>
+  <si>
+    <t>Simple Div.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Trades at Convergence</t>
+  </si>
+  <si>
+    <t>Trades after 500 days</t>
+  </si>
+  <si>
+    <t>Finish Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="0.00%"/>
+    <numFmt numFmtId="170" formatCode="0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -257,7 +253,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -383,6 +379,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -446,7 +446,7 @@
   <dimension ref="1:17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="1" sqref="A1:K7 D21"/>
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="1" sqref="A1:K7 C44"/>
+      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1637,10 +1637,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="A1:K7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1787,28 +1787,58 @@
       <c r="A9" s="28"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="14"/>
+      <c r="D9" s="26" t="n">
+        <v>0.00191385632361</v>
+      </c>
+      <c r="E9" s="26" t="n">
+        <v>0.00138343344259</v>
+      </c>
+      <c r="F9" s="26" t="n">
+        <v>0.000961202908423</v>
+      </c>
+      <c r="G9" s="32" t="n">
+        <v>6018.67714392</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28"/>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="23"/>
+      <c r="D10" s="26" t="n">
+        <v>0.00219259236901</v>
+      </c>
+      <c r="E10" s="26" t="n">
+        <v>0.00797631928898</v>
+      </c>
+      <c r="F10" s="26" t="n">
+        <v>0.00643971182134</v>
+      </c>
+      <c r="G10" s="32" t="n">
+        <v>7906.70078605</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="14"/>
+      <c r="D11" s="26" t="n">
+        <v>0.00274947071009</v>
+      </c>
+      <c r="E11" s="26" t="n">
+        <v>0.0453250994309</v>
+      </c>
+      <c r="F11" s="26" t="n">
+        <v>0.107627273703</v>
+      </c>
+      <c r="G11" s="32" t="n">
+        <v>9025.7844423</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25"/>
@@ -1859,7 +1889,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="1" sqref="A1:K7 E26"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1902,16 +1932,16 @@
       <c r="A3" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B3" s="32" t="n">
+      <c r="B3" s="33" t="n">
         <v>0.8</v>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="34" t="n">
         <v>0.01</v>
       </c>
-      <c r="D3" s="34" t="n">
+      <c r="D3" s="35" t="n">
         <v>10488.4</v>
       </c>
-      <c r="E3" s="35" t="n">
+      <c r="E3" s="36" t="n">
         <v>12520.877</v>
       </c>
     </row>
@@ -1919,16 +1949,16 @@
       <c r="A4" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B4" s="32" t="n">
+      <c r="B4" s="33" t="n">
         <v>0.06</v>
       </c>
-      <c r="C4" s="33" t="n">
+      <c r="C4" s="34" t="n">
         <v>0.38</v>
       </c>
-      <c r="D4" s="34" t="n">
+      <c r="D4" s="35" t="n">
         <v>30837.8355263</v>
       </c>
-      <c r="E4" s="35" t="n">
+      <c r="E4" s="36" t="n">
         <v>32218.2515</v>
       </c>
     </row>
@@ -1936,16 +1966,16 @@
       <c r="A5" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B5" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="33" t="n">
+      <c r="B5" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="34" t="n">
         <v>0.7</v>
       </c>
-      <c r="D5" s="34" t="n">
+      <c r="D5" s="35" t="n">
         <v>39683.74</v>
       </c>
-      <c r="E5" s="35" t="n">
+      <c r="E5" s="36" t="n">
         <v>53343.86825</v>
       </c>
     </row>
@@ -1953,16 +1983,16 @@
       <c r="A6" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="B6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="33" t="n">
+      <c r="B6" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="34" t="n">
         <v>0.96</v>
       </c>
-      <c r="D6" s="34" t="n">
+      <c r="D6" s="35" t="n">
         <v>37658.2332031</v>
       </c>
-      <c r="E6" s="35" t="n">
+      <c r="E6" s="36" t="n">
         <v>81844.20275</v>
       </c>
     </row>
@@ -1970,16 +2000,16 @@
       <c r="A7" s="0" t="n">
         <v>320</v>
       </c>
-      <c r="B7" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="33" t="n">
+      <c r="B7" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="34" t="n">
+      <c r="D7" s="35" t="n">
         <v>17821.2206875</v>
       </c>
-      <c r="E7" s="35" t="n">
+      <c r="E7" s="36" t="n">
         <v>118672.051375</v>
       </c>
     </row>
@@ -1987,16 +2017,16 @@
       <c r="A8" s="0" t="n">
         <v>640</v>
       </c>
-      <c r="B8" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="33" t="n">
+      <c r="B8" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="34" t="n">
+      <c r="D8" s="35" t="n">
         <v>17959.1287187</v>
       </c>
-      <c r="E8" s="35" t="n">
+      <c r="E8" s="36" t="n">
         <v>173038.445062</v>
       </c>
     </row>
@@ -2004,58 +2034,58 @@
       <c r="A9" s="0" t="n">
         <v>640</v>
       </c>
-      <c r="B9" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="33" t="n">
+      <c r="B9" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="34" t="n">
+      <c r="D9" s="35" t="n">
         <v>23488.8782969</v>
       </c>
-      <c r="E9" s="35" t="n">
+      <c r="E9" s="36" t="n">
         <v>242667.660781</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="36"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="37"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2075,8 +2105,8 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:K7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2148,279 +2178,279 @@
       <c r="A3" s="28" t="n">
         <v>10</v>
       </c>
-      <c r="B3" s="32" t="n">
+      <c r="B3" s="33" t="n">
         <v>0.05</v>
       </c>
-      <c r="C3" s="33" t="n">
+      <c r="C3" s="34" t="n">
         <v>0.25</v>
       </c>
-      <c r="D3" s="40" t="n">
+      <c r="D3" s="41" t="n">
         <v>0.0113518550411</v>
       </c>
-      <c r="E3" s="40" t="n">
+      <c r="E3" s="41" t="n">
         <v>0.313767994003</v>
       </c>
-      <c r="F3" s="40" t="n">
+      <c r="F3" s="41" t="n">
         <v>0.0423682166836</v>
       </c>
-      <c r="G3" s="34" t="n">
+      <c r="G3" s="35" t="n">
         <v>238156.932</v>
       </c>
-      <c r="H3" s="40" t="n">
+      <c r="H3" s="41" t="n">
         <v>0.0229248952958</v>
       </c>
-      <c r="I3" s="40" t="n">
+      <c r="I3" s="41" t="n">
         <v>0.31972289214</v>
       </c>
-      <c r="J3" s="40" t="n">
+      <c r="J3" s="41" t="n">
         <v>0.0523339930665</v>
       </c>
-      <c r="K3" s="35" t="n">
+      <c r="K3" s="36" t="n">
         <v>239213.1755</v>
       </c>
-      <c r="L3" s="41"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="n">
         <v>20</v>
       </c>
-      <c r="B4" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="33" t="n">
+      <c r="B4" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="34" t="n">
         <v>0.65</v>
       </c>
-      <c r="D4" s="40" t="n">
+      <c r="D4" s="41" t="n">
         <v>0.0192714530543</v>
       </c>
-      <c r="E4" s="40" t="n">
+      <c r="E4" s="41" t="n">
         <v>0.322647958735</v>
       </c>
-      <c r="F4" s="40" t="n">
+      <c r="F4" s="41" t="n">
         <v>0.0207487511859</v>
       </c>
-      <c r="G4" s="34" t="n">
+      <c r="G4" s="35" t="n">
         <v>490495.318462</v>
       </c>
-      <c r="H4" s="40" t="n">
+      <c r="H4" s="41" t="n">
         <v>0.0253356557839</v>
       </c>
-      <c r="I4" s="40" t="n">
+      <c r="I4" s="41" t="n">
         <v>0.324750116799</v>
       </c>
-      <c r="J4" s="40" t="n">
+      <c r="J4" s="41" t="n">
         <v>0.0416130702703</v>
       </c>
-      <c r="K4" s="35" t="n">
+      <c r="K4" s="36" t="n">
         <v>569163.143</v>
       </c>
-      <c r="L4" s="41"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="n">
         <v>30</v>
       </c>
-      <c r="B5" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="33" t="n">
+      <c r="B5" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="34" t="n">
         <v>0.85</v>
       </c>
-      <c r="D5" s="40" t="n">
+      <c r="D5" s="41" t="n">
         <v>0.0265375059566</v>
       </c>
-      <c r="E5" s="40" t="n">
+      <c r="E5" s="41" t="n">
         <v>0.324716438644</v>
       </c>
-      <c r="F5" s="40" t="n">
+      <c r="F5" s="41" t="n">
         <v>0.0209483366068</v>
       </c>
-      <c r="G5" s="34" t="n">
+      <c r="G5" s="35" t="n">
         <v>637118.042353</v>
       </c>
-      <c r="H5" s="40" t="n">
+      <c r="H5" s="41" t="n">
         <v>0.0272956069336</v>
       </c>
-      <c r="I5" s="40" t="n">
+      <c r="I5" s="41" t="n">
         <v>0.325782035677</v>
       </c>
-      <c r="J5" s="40" t="n">
+      <c r="J5" s="41" t="n">
         <v>0.0222099685524</v>
       </c>
-      <c r="K5" s="35" t="n">
+      <c r="K5" s="36" t="n">
         <v>931172.801</v>
       </c>
-      <c r="L5" s="41"/>
+      <c r="L5" s="42"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="n">
         <v>40</v>
       </c>
-      <c r="B6" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="33" t="n">
+      <c r="B6" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="34" t="n">
         <v>0.9</v>
       </c>
-      <c r="D6" s="40" t="n">
+      <c r="D6" s="41" t="n">
         <v>0.0258859232898</v>
       </c>
-      <c r="E6" s="40" t="n">
+      <c r="E6" s="41" t="n">
         <v>0.327983102104</v>
       </c>
-      <c r="F6" s="40" t="n">
+      <c r="F6" s="41" t="n">
         <v>0.0092175187759</v>
       </c>
-      <c r="G6" s="34" t="n">
+      <c r="G6" s="35" t="n">
         <v>954169.209444</v>
       </c>
-      <c r="H6" s="40" t="n">
+      <c r="H6" s="41" t="n">
         <v>0.0292518115968</v>
       </c>
-      <c r="I6" s="40" t="n">
+      <c r="I6" s="41" t="n">
         <v>0.32751770637</v>
       </c>
-      <c r="J6" s="40" t="n">
+      <c r="J6" s="41" t="n">
         <v>0.0162438053962</v>
       </c>
-      <c r="K6" s="35" t="n">
+      <c r="K6" s="36" t="n">
         <v>1714040.2615</v>
       </c>
-      <c r="L6" s="41"/>
+      <c r="L6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="n">
         <v>50</v>
       </c>
-      <c r="B7" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="33" t="n">
+      <c r="B7" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="34" t="n">
         <v>0.8</v>
       </c>
-      <c r="D7" s="40" t="n">
+      <c r="D7" s="41" t="n">
         <v>0.0231408952692</v>
       </c>
-      <c r="E7" s="40" t="n">
+      <c r="E7" s="41" t="n">
         <v>0.328554276832</v>
       </c>
-      <c r="F7" s="40" t="n">
+      <c r="F7" s="41" t="n">
         <v>0.011313239155</v>
       </c>
-      <c r="G7" s="34" t="n">
+      <c r="G7" s="35" t="n">
         <v>744508.326875</v>
       </c>
-      <c r="H7" s="40" t="n">
+      <c r="H7" s="41" t="n">
         <v>0.0275868958682</v>
       </c>
-      <c r="I7" s="40" t="n">
+      <c r="I7" s="41" t="n">
         <v>0.327362663996</v>
       </c>
-      <c r="J7" s="40" t="n">
+      <c r="J7" s="41" t="n">
         <v>0.0225792338851</v>
       </c>
-      <c r="K7" s="35" t="n">
+      <c r="K7" s="36" t="n">
         <v>1301897.479</v>
       </c>
-      <c r="L7" s="41"/>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="41"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="41"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="41"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="28"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="41"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="41"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="41"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="42"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="41"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/formatted.xlsx
+++ b/formatted.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="979" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="979" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="1" state="visible" r:id="rId2"/>
@@ -1639,7 +1639,7 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2105,8 +2105,8 @@
   </sheetPr>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2117,7 +2117,8 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.02040816326531"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.02040816326531"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.71938775510204"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.30612244897959"/>
@@ -2179,34 +2180,34 @@
         <v>10</v>
       </c>
       <c r="B3" s="33" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C3" s="34" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="D3" s="41" t="n">
-        <v>0.0113518550411</v>
+        <v>0.0150172288526</v>
       </c>
       <c r="E3" s="41" t="n">
-        <v>0.313767994003</v>
+        <v>0.314848147112</v>
       </c>
       <c r="F3" s="41" t="n">
-        <v>0.0423682166836</v>
+        <v>0.0413841265011</v>
       </c>
       <c r="G3" s="35" t="n">
-        <v>238156.932</v>
+        <v>243203.028333</v>
       </c>
       <c r="H3" s="41" t="n">
-        <v>0.0229248952958</v>
+        <v>0.0222927442785</v>
       </c>
       <c r="I3" s="41" t="n">
-        <v>0.31972289214</v>
+        <v>0.32179631954</v>
       </c>
       <c r="J3" s="41" t="n">
-        <v>0.0523339930665</v>
+        <v>0.0518788441579</v>
       </c>
       <c r="K3" s="36" t="n">
-        <v>239213.1755</v>
+        <v>237237.5141</v>
       </c>
       <c r="L3" s="42"/>
     </row>
@@ -2218,31 +2219,31 @@
         <v>0</v>
       </c>
       <c r="C4" s="34" t="n">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="D4" s="41" t="n">
-        <v>0.0192714530543</v>
+        <v>0.0210756361368</v>
       </c>
       <c r="E4" s="41" t="n">
-        <v>0.322647958735</v>
+        <v>0.32096793906</v>
       </c>
       <c r="F4" s="41" t="n">
-        <v>0.0207487511859</v>
+        <v>0.0270973804277</v>
       </c>
       <c r="G4" s="35" t="n">
-        <v>490495.318462</v>
+        <v>481809.889444</v>
       </c>
       <c r="H4" s="41" t="n">
-        <v>0.0253356557839</v>
+        <v>0.0249290082379</v>
       </c>
       <c r="I4" s="41" t="n">
-        <v>0.324750116799</v>
+        <v>0.324686433203</v>
       </c>
       <c r="J4" s="41" t="n">
-        <v>0.0416130702703</v>
+        <v>0.0290336971948</v>
       </c>
       <c r="K4" s="36" t="n">
-        <v>569163.143</v>
+        <v>555735.9959</v>
       </c>
       <c r="L4" s="42"/>
     </row>
@@ -2254,31 +2255,31 @@
         <v>0</v>
       </c>
       <c r="C5" s="34" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="D5" s="41" t="n">
-        <v>0.0265375059566</v>
+        <v>0.0251762752818</v>
       </c>
       <c r="E5" s="41" t="n">
-        <v>0.324716438644</v>
+        <v>0.327948257685</v>
       </c>
       <c r="F5" s="41" t="n">
-        <v>0.0209483366068</v>
+        <v>0.0178819445581</v>
       </c>
       <c r="G5" s="35" t="n">
-        <v>637118.042353</v>
+        <v>691243.431149</v>
       </c>
       <c r="H5" s="41" t="n">
-        <v>0.0272956069336</v>
+        <v>0.02600249566</v>
       </c>
       <c r="I5" s="41" t="n">
-        <v>0.325782035677</v>
+        <v>0.326233562689</v>
       </c>
       <c r="J5" s="41" t="n">
-        <v>0.0222099685524</v>
+        <v>0.0183835896125</v>
       </c>
       <c r="K5" s="36" t="n">
-        <v>931172.801</v>
+        <v>917190.1986</v>
       </c>
       <c r="L5" s="42"/>
     </row>
@@ -2290,31 +2291,31 @@
         <v>0</v>
       </c>
       <c r="C6" s="34" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="D6" s="41" t="n">
-        <v>0.0258859232898</v>
+        <v>0.0247884996456</v>
       </c>
       <c r="E6" s="41" t="n">
-        <v>0.327983102104</v>
+        <v>0.326007752009</v>
       </c>
       <c r="F6" s="41" t="n">
-        <v>0.0092175187759</v>
+        <v>0.0119513988702</v>
       </c>
       <c r="G6" s="35" t="n">
-        <v>954169.209444</v>
+        <v>812424.46172</v>
       </c>
       <c r="H6" s="41" t="n">
-        <v>0.0292518115968</v>
+        <v>0.0263716910237</v>
       </c>
       <c r="I6" s="41" t="n">
-        <v>0.32751770637</v>
+        <v>0.326677610268</v>
       </c>
       <c r="J6" s="41" t="n">
-        <v>0.0162438053962</v>
+        <v>0.0146839002328</v>
       </c>
       <c r="K6" s="36" t="n">
-        <v>1714040.2615</v>
+        <v>1291477.8924</v>
       </c>
       <c r="L6" s="42"/>
     </row>
@@ -2326,46 +2327,68 @@
         <v>0</v>
       </c>
       <c r="C7" s="34" t="n">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="D7" s="41" t="n">
-        <v>0.0231408952692</v>
+        <v>0.0272114534175</v>
       </c>
       <c r="E7" s="41" t="n">
-        <v>0.328554276832</v>
+        <v>0.32716862203</v>
       </c>
       <c r="F7" s="41" t="n">
-        <v>0.011313239155</v>
+        <v>0.00965549823213</v>
       </c>
       <c r="G7" s="35" t="n">
-        <v>744508.326875</v>
+        <v>960403.978105</v>
       </c>
       <c r="H7" s="41" t="n">
-        <v>0.0275868958682</v>
+        <v>0.0277511074234</v>
       </c>
       <c r="I7" s="41" t="n">
-        <v>0.327362663996</v>
+        <v>0.327439114954</v>
       </c>
       <c r="J7" s="41" t="n">
-        <v>0.0225792338851</v>
+        <v>0.0116700598244</v>
       </c>
       <c r="K7" s="36" t="n">
-        <v>1301897.479</v>
+        <v>1707255.4055</v>
       </c>
       <c r="L7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="36"/>
+      <c r="A8" s="28" t="n">
+        <v>60</v>
+      </c>
+      <c r="B8" s="33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="34" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D8" s="41" t="n">
+        <v>0.0270042130073</v>
+      </c>
+      <c r="E8" s="41" t="n">
+        <v>0.328097278121</v>
+      </c>
+      <c r="F8" s="41" t="n">
+        <v>0.00885373781523</v>
+      </c>
+      <c r="G8" s="35" t="n">
+        <v>1179529.99722</v>
+      </c>
+      <c r="H8" s="41" t="n">
+        <v>0.0278870723004</v>
+      </c>
+      <c r="I8" s="41" t="n">
+        <v>0.327669186875</v>
+      </c>
+      <c r="J8" s="41" t="n">
+        <v>0.00834097463777</v>
+      </c>
+      <c r="K8" s="36" t="n">
+        <v>2113345.3723</v>
+      </c>
       <c r="L8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
